--- a/Pratica-CI-14Out2016/Part3/Part3.xlsx
+++ b/Pratica-CI-14Out2016/Part3/Part3.xlsx
@@ -107,7 +107,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Time (User)</t>
+    <t>Time (Real) (ms)</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P3:P20"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
